--- a/Output_testing/R1_201907/Country/HKD/MN/ISRAEL_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ISRAEL_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>12199.803491</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>74.1356669866291</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>9613.547393000001</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>65.7686047334852</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>11957.413521</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>70.94801458789971</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>5398.29462</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>66.27302978371303</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-19.94224490196896</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>1211.118917</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>7.359717619890874</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>1641.730396</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>11.23147502992417</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>1424.684914</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>8.453213220745036</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>798.881989</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>9.807602877863843</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-6.362659715847741</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>227.35064</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>1.381562526697341</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>298.45212</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>2.041783195081888</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>399.047532</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>2.36770519576659</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>262.771525</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>3.225956774963255</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>11.96892880045073</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>368.432969</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>2.238890480230199</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>355.244788</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>2.430315583882694</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>439.73527</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>2.609121470624267</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>257.991464</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>3.167273589379553</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>0.6307635738970196</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>247.252171</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.50249998899569</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>296.963117</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2.031596565136601</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>312.341866</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.853246542528753</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>168.690389</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.070954618335214</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-3.13158736992708</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>204.294768</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.241456790573042</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>302.691613</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.07078659289011</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>332.534923</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1.973059853333319</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>163.303268</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.004818763289668</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-23.65354845665371</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>225.125762</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.368042406097402</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>284.364818</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.945408552182238</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>264.169609</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.567421686980709</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>130.154356</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.597860828067955</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-24.67823099247303</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>331.844841</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.016552040510804</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>243.004946</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.662455656420138</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>212.514345</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.260930787642194</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>104.639526</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.284623925018678</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-21.55896535386834</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>136.815306</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.8313981427465076</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>145.792165</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.997399490650647</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>124.671092</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.7397223854783659</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>70.47005</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.8651368721534776</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>6.529104790476059</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>124.07539</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.753980324442271</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>154.417162</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.056405182860948</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>130.05158</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.7716469267216377</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>68.82306699999999</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.844917421179483</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-3.528451544775391</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>1179.93718</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>7.170232693186766</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>1281.020222</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>8.763769417485355</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>1256.602984</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>7.455917342279418</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>721.517437</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>8.857824546035854</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-2.262626738299134</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,499 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>13.333549</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>26.03044435084916</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>15.426908</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>41.9048646603605</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>18.066857</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>40.48172219083428</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>8.497189000000001</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>47.71844419205829</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-28.10374524872953</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>15.306354</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>29.88185636182815</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>7.177434</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>19.49641498987807</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>19.28018</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>43.20036908186517</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>4.441278</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>24.94129251266698</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-66.32421780930191</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>0.967593</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>1.888985126223423</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>1.07024</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>2.907145252574542</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>1.324021</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>2.966683706902125</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>1.277842</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>7.1760946076718</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-2.817648002762208</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>OTHER INORGANIC CHEMICALS; ORGANIC AND INORGANIC COMPOUNDS OF PRECIOUS METALS</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>1.179855</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>6.625820017916623</v>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>1.436812</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>2.80501873946931</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>1.260679</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>3.424444021780555</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>1.264014</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>2.832228294790023</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>0.7730399999999999</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>4.341231682410351</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-6.23555853667116</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>5.093021</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>9.942859153118658</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>5.609398</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>15.23708211756347</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>2.203241</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>4.936718660110937</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>0.674074</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>3.785459232496476</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-6.966916153821733</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.7588109709207808</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>1.083858525812458</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>0.623858</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>1.39785499174148</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>1.495316878913645</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-16.31492766695686</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.7374657773648549</v>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.05148478311517766</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.6553629014504916</v>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.127233758084449</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.6093807983050193</v>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>14.670516</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>28.64054051447534</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>5.87045</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>15.94619043203041</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>1.81071</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>4.057189315671538</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>1.914131398745477</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-61.16864992338495</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1792,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>12184.497137</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>74.27384634036028</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>9606.369959</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>65.88543749051293</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>11938.133341</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>71.02168690385128</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>5393.853342</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>66.36358289025181</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-19.85135062091449</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>1211.118917</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>7.382697810975042</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>1641.730396</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>11.25983340674846</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>1424.684914</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>8.475657207751762</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>798.881989</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>9.829090213430339</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-6.362659715847741</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>227.35064</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>1.385876356724246</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>298.45212</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>2.046938498110685</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>398.84487</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>2.372785985147531</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>262.771525</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>3.233024477092906</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>11.96892880045073</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>363.339948</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>2.214835389892094</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>349.63539</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>2.397979749961045</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>437.532029</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>2.602941505714648</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>257.31739</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>3.165919215377927</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>0.6522966310221312</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>247.225799</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.507030680038379</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>296.963117</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>2.036726147920302</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>312.341866</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.858167066858922</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>168.573689</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>2.074056017792822</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-3.19860093140466</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>204.294768</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.245333150474813</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>302.691613</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.076015126663938</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>332.478139</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.977960675756298</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>163.194756</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.007876008183171</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-23.70427926107258</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>225.125762</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.372314020516194</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>284.364818</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.950320518656186</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>264.169609</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.571583322450914</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>130.154356</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.601361558290092</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-24.67823099247303</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>320.947279</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.95641958923485</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>239.80433</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.644701719963119</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>212.399607</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.26359607117535</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>104.639526</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.287438389031687</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-21.55873602604982</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>136.815306</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.833994123893352</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>145.792165</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.9999178268909774</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>124.671092</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.7416864101840859</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>70.47005</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.8670322880379102</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>6.529104790476059</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>124.07539</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.7563345739969765</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>154.417162</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.059072502707618</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>130.05158</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.7736957137502932</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>68.82306699999999</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.8467685385606565</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-3.528451544775391</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>1160.037587</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>7.071317963893771</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>1260.193548</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>8.643057011864737</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>1233.830924</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>7.340239137358914</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>709.051073</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>8.72385040395069</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-1.938404502320024</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2250,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>15882.678742</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>83.69848704297134</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>14398.962826</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>80.90876235228095</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>15409.710421</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>82.10694364819223</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>7561.839632</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>77.13182745804303</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-17.63750769200113</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>267.405293</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>1.409171514134908</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>393.721569</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>2.21234857288937</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>424.702427</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>2.2629249536979</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>269.628833</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>2.750252007019751</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>7.981751417523442</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>343.719094</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>1.811329726106277</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>417.914606</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>2.348290911574934</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>303.500688</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>1.617130575850655</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>249.95229</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>2.549548501853594</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>62.7758260595608</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>238.577845</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>1.257256725571596</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>278.974531</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.567577075083563</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>309.849267</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>1.650957455393358</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>248.221716</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>2.531896403731002</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>62.57424390252719</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>112.247527</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.591521640450434</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>179.67718</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>1.009618431023235</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>162.69961</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>0.8669058239827681</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>236.198284</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>2.409255706809446</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>146.2883096715317</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>416.178985</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>2.193178616115049</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>259.697004</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.459255325133191</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>307.538467</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>1.638644912185299</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>204.806519</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.089055290056753</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>23.16784209730935</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>133.920314</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.7057328205272373</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>202.018323</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.135154849965951</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>325.82541</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>1.736082499094947</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>157.62415</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.607788492309657</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-22.24226046344494</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>PHOTOGRAPHIC APPARATUS AND EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>110.572729</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.5826957955800779</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>246.113686</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.382929727151023</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>160.496962</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.8551695427502316</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>115.821938</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.181400052424724</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>108.2051930489319</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>71.262563</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.3755392149393402</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>189.178478</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.063006877900263</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>147.280772</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.7847502462204932</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>84.78003699999999</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.8647682976636952</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-42.42442308998302</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>48.46251</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.2553875722851833</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>76.434375</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.4294900096035656</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>131.679355</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.7016218400756734</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>70.36485</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.7177313634560135</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>38.87948637553116</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>1351.038725</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>7.119699331318566</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>1153.850599</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>6.483565867393956</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>1084.569541</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>5.778868502556445</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>604.548179</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>6.166476426632332</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-5.090470781553824</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
